--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H2">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I2">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J2">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1421586666666667</v>
+        <v>6.072364333333334</v>
       </c>
       <c r="N2">
-        <v>0.426476</v>
+        <v>18.217093</v>
       </c>
       <c r="O2">
-        <v>0.008210963676175792</v>
+        <v>0.4407767221912973</v>
       </c>
       <c r="P2">
-        <v>0.008210963676175792</v>
+        <v>0.4407767221912974</v>
       </c>
       <c r="Q2">
-        <v>2.46023555738</v>
+        <v>54.03281274089289</v>
       </c>
       <c r="R2">
-        <v>22.14212001642</v>
+        <v>486.295314668036</v>
       </c>
       <c r="S2">
-        <v>0.004485787843867116</v>
+        <v>0.1659611268698889</v>
       </c>
       <c r="T2">
-        <v>0.004485787843867115</v>
+        <v>0.1659611268698889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H3">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I3">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J3">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.072364333333334</v>
+        <v>7.704144333333335</v>
       </c>
       <c r="N3">
-        <v>18.217093</v>
+        <v>23.112433</v>
       </c>
       <c r="O3">
-        <v>0.3507345991533317</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="P3">
-        <v>0.3507345991533317</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="Q3">
-        <v>105.089946329215</v>
+        <v>68.55263703574623</v>
       </c>
       <c r="R3">
-        <v>945.8095169629352</v>
+        <v>616.9737333217161</v>
       </c>
       <c r="S3">
-        <v>0.1916122227979927</v>
+        <v>0.2105585905163248</v>
       </c>
       <c r="T3">
-        <v>0.1916122227979926</v>
+        <v>0.2105585905163248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.306265</v>
+        <v>3.344413333333334</v>
       </c>
       <c r="H4">
-        <v>51.918795</v>
+        <v>10.03324</v>
       </c>
       <c r="I4">
-        <v>0.5463168539988408</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J4">
-        <v>0.5463168539988407</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.09875133333333</v>
+        <v>6.072364333333334</v>
       </c>
       <c r="N4">
-        <v>33.296254</v>
+        <v>18.217093</v>
       </c>
       <c r="O4">
-        <v>0.6410544371704925</v>
+        <v>0.4407767221912973</v>
       </c>
       <c r="P4">
-        <v>0.6410544371704925</v>
+        <v>0.4407767221912974</v>
       </c>
       <c r="Q4">
-        <v>192.07793174377</v>
+        <v>20.30849624125778</v>
       </c>
       <c r="R4">
-        <v>1728.70138569393</v>
+        <v>182.77646617132</v>
       </c>
       <c r="S4">
-        <v>0.350218843356981</v>
+        <v>0.0623772990940606</v>
       </c>
       <c r="T4">
-        <v>0.3502188433569809</v>
+        <v>0.06237729909406062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>10.03324</v>
       </c>
       <c r="I5">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J5">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1421586666666667</v>
+        <v>7.704144333333335</v>
       </c>
       <c r="N5">
-        <v>0.426476</v>
+        <v>23.112433</v>
       </c>
       <c r="O5">
-        <v>0.008210963676175792</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="P5">
-        <v>0.008210963676175792</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="Q5">
-        <v>0.475437340248889</v>
+        <v>25.76584303032445</v>
       </c>
       <c r="R5">
-        <v>4.278936062240001</v>
+        <v>231.8925872729201</v>
       </c>
       <c r="S5">
-        <v>0.0008668727004662049</v>
+        <v>0.07913947335244084</v>
       </c>
       <c r="T5">
-        <v>0.0008668727004662048</v>
+        <v>0.07913947335244086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.344413333333334</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H6">
-        <v>10.03324</v>
+        <v>34.170194</v>
       </c>
       <c r="I6">
-        <v>0.1055750256186672</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J6">
-        <v>0.1055750256186672</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>18.217093</v>
       </c>
       <c r="O6">
-        <v>0.3507345991533317</v>
+        <v>0.4407767221912973</v>
       </c>
       <c r="P6">
-        <v>0.3507345991533317</v>
+        <v>0.4407767221912974</v>
       </c>
       <c r="Q6">
-        <v>20.30849624125778</v>
+        <v>69.16462243622689</v>
       </c>
       <c r="R6">
-        <v>182.77646617132</v>
+        <v>622.4816019260421</v>
       </c>
       <c r="S6">
-        <v>0.03702881429096596</v>
+        <v>0.2124382962273478</v>
       </c>
       <c r="T6">
-        <v>0.03702881429096595</v>
+        <v>0.2124382962273478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.344413333333334</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H7">
-        <v>10.03324</v>
+        <v>34.170194</v>
       </c>
       <c r="I7">
-        <v>0.1055750256186672</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J7">
-        <v>0.1055750256186672</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.09875133333333</v>
+        <v>7.704144333333335</v>
       </c>
       <c r="N7">
-        <v>33.296254</v>
+        <v>23.112433</v>
       </c>
       <c r="O7">
-        <v>0.6410544371704925</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="P7">
-        <v>0.6410544371704925</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="Q7">
-        <v>37.11881194255112</v>
+        <v>87.75070215800024</v>
       </c>
       <c r="R7">
-        <v>334.0693074829601</v>
+        <v>789.7563194220021</v>
       </c>
       <c r="S7">
-        <v>0.06767933862723501</v>
+        <v>0.269525213939937</v>
       </c>
       <c r="T7">
-        <v>0.06767933862723501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>11.02739433333333</v>
-      </c>
-      <c r="H8">
-        <v>33.082183</v>
-      </c>
-      <c r="I8">
-        <v>0.3481081203824922</v>
-      </c>
-      <c r="J8">
-        <v>0.3481081203824921</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1421586666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.426476</v>
-      </c>
-      <c r="O8">
-        <v>0.008210963676175792</v>
-      </c>
-      <c r="P8">
-        <v>0.008210963676175792</v>
-      </c>
-      <c r="Q8">
-        <v>1.567639675234223</v>
-      </c>
-      <c r="R8">
-        <v>14.108757077108</v>
-      </c>
-      <c r="S8">
-        <v>0.002858303131842473</v>
-      </c>
-      <c r="T8">
-        <v>0.002858303131842473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11.02739433333333</v>
-      </c>
-      <c r="H9">
-        <v>33.082183</v>
-      </c>
-      <c r="I9">
-        <v>0.3481081203824922</v>
-      </c>
-      <c r="J9">
-        <v>0.3481081203824921</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.072364333333334</v>
-      </c>
-      <c r="N9">
-        <v>18.217093</v>
-      </c>
-      <c r="O9">
-        <v>0.3507345991533317</v>
-      </c>
-      <c r="P9">
-        <v>0.3507345991533317</v>
-      </c>
-      <c r="Q9">
-        <v>66.96235603933545</v>
-      </c>
-      <c r="R9">
-        <v>602.6612043540191</v>
-      </c>
-      <c r="S9">
-        <v>0.1220935620643731</v>
-      </c>
-      <c r="T9">
-        <v>0.1220935620643731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>11.02739433333333</v>
-      </c>
-      <c r="H10">
-        <v>33.082183</v>
-      </c>
-      <c r="I10">
-        <v>0.3481081203824922</v>
-      </c>
-      <c r="J10">
-        <v>0.3481081203824921</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>11.09875133333333</v>
-      </c>
-      <c r="N10">
-        <v>33.296254</v>
-      </c>
-      <c r="O10">
-        <v>0.6410544371704925</v>
-      </c>
-      <c r="P10">
-        <v>0.6410544371704925</v>
-      </c>
-      <c r="Q10">
-        <v>122.3903075602758</v>
-      </c>
-      <c r="R10">
-        <v>1101.512768042482</v>
-      </c>
-      <c r="S10">
-        <v>0.2231562551862766</v>
-      </c>
-      <c r="T10">
-        <v>0.2231562551862765</v>
+        <v>0.2695252139399371</v>
       </c>
     </row>
   </sheetData>
